--- a/45. DIKMATA SENAVBAH BAH(K_3) NAV(K_4)/UKURAN.xlsx
+++ b/45. DIKMATA SENAVBAH BAH(K_3) NAV(K_4)/UKURAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\45. DIKMATA SENAVBAH (K_4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\45. DIKMATA SENAVBAH BAH(K_3) NAV(K_4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24E052-4496-4BEF-870E-862742390430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97630E54-9943-4E6A-8356-5E6DA46D2B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">UKURAN!$A$1:$Y$82</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">UKURAN!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -846,7 +847,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; &quot;&quot;- &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; &quot;&quot;- &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1082,7 +1083,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1090,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,13 +1130,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1159,7 +1166,36 @@
     <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1265,11 +1301,11 @@
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAMA1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NAMA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NAMA" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PANGKAT"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KORPS"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NRP"/>
-    <tableColumn id="25" xr3:uid="{2126E542-C58D-46D3-AB40-B378DA83C9B6}" name="BORDIR" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{2126E542-C58D-46D3-AB40-B378DA83C9B6}" name="BORDIR" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="GENDER"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="KELAS"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="UB_1"/>
@@ -1592,15 +1628,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
     <col min="2" max="2" width="34.25" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="8.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="3" bestFit="1" customWidth="1"/>
@@ -1615,7 +1651,7 @@
     <col min="26" max="1025" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,12 +1731,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1718,65 +1754,65 @@
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>45</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>59</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>18</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>17</v>
       </c>
-      <c r="N2" s="14">
-        <v>27</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="N2" s="13">
+        <v>27</v>
+      </c>
+      <c r="O2" s="13">
         <v>24</v>
       </c>
-      <c r="P2" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13">
         <v>60</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>37</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <v>78</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>100</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>67</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>32</v>
       </c>
-      <c r="W2" s="14">
-        <v>25</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="W2" s="13">
+        <v>25</v>
+      </c>
+      <c r="X2" s="13">
         <v>20</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="13">
         <v>101</v>
       </c>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1794,65 +1830,65 @@
       <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>44</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>60</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>17</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>17</v>
       </c>
-      <c r="N3" s="14">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14">
-        <v>25</v>
-      </c>
-      <c r="P3" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="N3" s="13">
+        <v>27</v>
+      </c>
+      <c r="O3" s="13">
+        <v>25</v>
+      </c>
+      <c r="P3" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="13">
         <v>72</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>37</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <v>79</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>99</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="13">
         <v>67</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <v>32</v>
       </c>
-      <c r="W3" s="14">
-        <v>25</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="W3" s="13">
+        <v>25</v>
+      </c>
+      <c r="X3" s="13">
         <v>20</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="13">
         <v>101</v>
       </c>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1870,65 +1906,65 @@
       <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>43</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>57</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>17</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>16</v>
       </c>
-      <c r="N4" s="14">
-        <v>27</v>
-      </c>
-      <c r="O4" s="14">
-        <v>25</v>
-      </c>
-      <c r="P4" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="N4" s="13">
+        <v>27</v>
+      </c>
+      <c r="O4" s="13">
+        <v>25</v>
+      </c>
+      <c r="P4" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="13">
         <v>70</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>37</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="13">
         <v>81</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <v>102</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="13">
         <v>67</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="13">
         <v>33</v>
       </c>
-      <c r="W4" s="14">
-        <v>25</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="W4" s="13">
+        <v>25</v>
+      </c>
+      <c r="X4" s="13">
         <v>20</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="13">
         <v>96</v>
       </c>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1946,65 +1982,65 @@
       <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>43</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>59</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>17</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>16</v>
       </c>
-      <c r="N5" s="14">
-        <v>27</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="N5" s="13">
+        <v>27</v>
+      </c>
+      <c r="O5" s="13">
         <v>24</v>
       </c>
-      <c r="P5" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="14">
+      <c r="P5" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="13">
         <v>71</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>39</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>78</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>99</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="13">
         <v>67</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <v>32</v>
       </c>
-      <c r="W5" s="14">
-        <v>25</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="W5" s="13">
+        <v>25</v>
+      </c>
+      <c r="X5" s="13">
         <v>20</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="13">
         <v>97</v>
       </c>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2022,65 +2058,65 @@
       <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>46</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>59</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>18</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>17</v>
       </c>
-      <c r="N6" s="14">
-        <v>27</v>
-      </c>
-      <c r="O6" s="14">
-        <v>25</v>
-      </c>
-      <c r="P6" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="14">
+      <c r="N6" s="13">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13">
+        <v>25</v>
+      </c>
+      <c r="P6" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13">
         <v>70</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>40</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>79</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>101</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="13">
         <v>68</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="13">
         <v>32</v>
       </c>
-      <c r="W6" s="14">
-        <v>25</v>
-      </c>
-      <c r="X6" s="14">
+      <c r="W6" s="13">
+        <v>25</v>
+      </c>
+      <c r="X6" s="13">
         <v>20</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="13">
         <v>99</v>
       </c>
-      <c r="Z6" s="14"/>
-    </row>
-    <row r="7" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="13"/>
+    </row>
+    <row r="7" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2098,65 +2134,65 @@
       <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>45</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>60</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>17</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>16</v>
       </c>
-      <c r="N7" s="14">
-        <v>27</v>
-      </c>
-      <c r="O7" s="14">
-        <v>25</v>
-      </c>
-      <c r="P7" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="14">
+      <c r="N7" s="13">
+        <v>27</v>
+      </c>
+      <c r="O7" s="13">
+        <v>25</v>
+      </c>
+      <c r="P7" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="13">
         <v>73</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>38</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="13">
         <v>80</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>102</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="13">
         <v>68</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <v>33</v>
       </c>
-      <c r="W7" s="14">
-        <v>25</v>
-      </c>
-      <c r="X7" s="14">
+      <c r="W7" s="13">
+        <v>25</v>
+      </c>
+      <c r="X7" s="13">
         <v>20</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="13">
         <v>98</v>
       </c>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" t="s">
+      <c r="C8" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2174,65 +2210,65 @@
       <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>44</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>58</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>17</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>16</v>
       </c>
-      <c r="N8" s="14">
-        <v>25</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="N8" s="13">
+        <v>25</v>
+      </c>
+      <c r="O8" s="13">
         <v>23</v>
       </c>
-      <c r="P8" s="14">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="14">
+      <c r="P8" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="13">
         <v>70</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="13">
         <v>37</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="13">
         <v>71</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>96</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <v>68</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <v>31</v>
       </c>
-      <c r="W8" s="14">
-        <v>25</v>
-      </c>
-      <c r="X8" s="14">
+      <c r="W8" s="13">
+        <v>25</v>
+      </c>
+      <c r="X8" s="13">
         <v>20</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="13">
         <v>99</v>
       </c>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2250,65 +2286,65 @@
       <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>46</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>60</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>18</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>17</v>
       </c>
-      <c r="N9" s="14">
-        <v>27</v>
-      </c>
-      <c r="O9" s="14">
-        <v>25</v>
-      </c>
-      <c r="P9" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="14">
+      <c r="N9" s="13">
+        <v>27</v>
+      </c>
+      <c r="O9" s="13">
+        <v>25</v>
+      </c>
+      <c r="P9" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="13">
         <v>69</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <v>39</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <v>80</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <v>100</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="13">
         <v>68</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <v>33</v>
       </c>
-      <c r="W9" s="14">
-        <v>25</v>
-      </c>
-      <c r="X9" s="14">
+      <c r="W9" s="13">
+        <v>25</v>
+      </c>
+      <c r="X9" s="13">
         <v>20</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="13">
         <v>103</v>
       </c>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" t="s">
+      <c r="C10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2326,65 +2362,65 @@
       <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>42</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>59</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>17</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>16</v>
       </c>
-      <c r="N10" s="14">
-        <v>27</v>
-      </c>
-      <c r="O10" s="14">
+      <c r="N10" s="13">
+        <v>27</v>
+      </c>
+      <c r="O10" s="13">
         <v>24</v>
       </c>
-      <c r="P10" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="14">
+      <c r="P10" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="13">
         <v>71</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="13">
         <v>37</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="13">
         <v>77</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="13">
         <v>10</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="13">
         <v>68</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="13">
         <v>33</v>
       </c>
-      <c r="W10" s="14">
-        <v>25</v>
-      </c>
-      <c r="X10" s="14">
+      <c r="W10" s="13">
+        <v>25</v>
+      </c>
+      <c r="X10" s="13">
         <v>20</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="13">
         <v>102</v>
       </c>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2402,65 +2438,65 @@
       <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>46</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>57</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>18</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>17</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>26</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>23</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>26</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>68</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="13">
         <v>38</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="13">
         <v>74</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <v>99</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="13">
         <v>67</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="13">
         <v>31</v>
       </c>
-      <c r="W11" s="14">
-        <v>25</v>
-      </c>
-      <c r="X11" s="14">
+      <c r="W11" s="13">
+        <v>25</v>
+      </c>
+      <c r="X11" s="13">
         <v>20</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="13">
         <v>94</v>
       </c>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" t="s">
+      <c r="C12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2478,65 +2514,65 @@
       <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>42</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>57</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>17</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>16</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>26</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>24</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>26</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>69</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="13">
         <v>37</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="13">
         <v>73</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="13">
         <v>95</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="13">
         <v>67</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="13">
         <v>31</v>
       </c>
-      <c r="W12" s="14">
-        <v>25</v>
-      </c>
-      <c r="X12" s="14">
+      <c r="W12" s="13">
+        <v>25</v>
+      </c>
+      <c r="X12" s="13">
         <v>20</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="13">
         <v>97</v>
       </c>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2554,65 +2590,65 @@
       <c r="H13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>44</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>58</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>17</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>16</v>
       </c>
-      <c r="N13" s="14">
-        <v>27</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="N13" s="13">
+        <v>27</v>
+      </c>
+      <c r="O13" s="13">
         <v>24</v>
       </c>
-      <c r="P13" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="14">
+      <c r="P13" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="13">
         <v>72</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="13">
         <v>37</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="13">
         <v>78</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="13">
         <v>101</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="13">
         <v>68</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="13">
         <v>31</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="13">
         <v>24</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="13">
         <v>19</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="13">
         <v>102</v>
       </c>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2630,65 +2666,65 @@
       <c r="H14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>46</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>58</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>18</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>17</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>26</v>
       </c>
-      <c r="O14" s="14">
-        <v>25</v>
-      </c>
-      <c r="P14" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="14">
+      <c r="O14" s="13">
+        <v>25</v>
+      </c>
+      <c r="P14" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="13">
         <v>66</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="13">
         <v>37</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="13">
         <v>80</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="13">
         <v>103</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="13">
         <v>68</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="13">
         <v>33</v>
       </c>
-      <c r="W14" s="14">
-        <v>25</v>
-      </c>
-      <c r="X14" s="14">
+      <c r="W14" s="13">
+        <v>25</v>
+      </c>
+      <c r="X14" s="13">
         <v>20</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="13">
         <v>99</v>
       </c>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" t="s">
+      <c r="C15" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2706,65 +2742,65 @@
       <c r="H15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>46</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>61</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>18</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>17</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>28</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <v>26</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <v>28</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="13">
         <v>70</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="13">
         <v>39</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="13">
         <v>83</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="13">
         <v>109</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="13">
         <v>70</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="13">
         <v>35</v>
       </c>
-      <c r="W15" s="14">
-        <v>25</v>
-      </c>
-      <c r="X15" s="14">
+      <c r="W15" s="13">
+        <v>25</v>
+      </c>
+      <c r="X15" s="13">
         <v>20</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="13">
         <v>108</v>
       </c>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" t="s">
+      <c r="C16" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2782,62 +2818,62 @@
       <c r="H16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>43</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>61</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>17</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>16</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>24</v>
       </c>
-      <c r="O16" s="14">
-        <v>25</v>
-      </c>
-      <c r="P16" s="14">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="14">
+      <c r="O16" s="13">
+        <v>25</v>
+      </c>
+      <c r="P16" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="13">
         <v>70</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="13">
         <v>37</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="13">
         <v>74</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="13">
         <v>68</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="13">
         <v>31</v>
       </c>
-      <c r="W16" s="14">
-        <v>25</v>
-      </c>
-      <c r="X16" s="14">
+      <c r="W16" s="13">
+        <v>25</v>
+      </c>
+      <c r="X16" s="13">
         <v>20</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="13">
         <v>100</v>
       </c>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" t="s">
+      <c r="C17" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2855,65 +2891,65 @@
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>45</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>57</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>17</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>17</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>26</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>24</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>26</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>66</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>38</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <v>77</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="13">
         <v>96</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="13">
         <v>67</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="13">
         <v>31</v>
       </c>
-      <c r="W17" s="14">
-        <v>25</v>
-      </c>
-      <c r="X17" s="14">
+      <c r="W17" s="13">
+        <v>25</v>
+      </c>
+      <c r="X17" s="13">
         <v>20</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="13">
         <v>101</v>
       </c>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2931,65 +2967,65 @@
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>45</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>60</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <v>18</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>17</v>
       </c>
-      <c r="N18" s="14">
-        <v>27</v>
-      </c>
-      <c r="O18" s="14">
-        <v>25</v>
-      </c>
-      <c r="P18" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="14">
+      <c r="N18" s="13">
+        <v>27</v>
+      </c>
+      <c r="O18" s="13">
+        <v>25</v>
+      </c>
+      <c r="P18" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="13">
         <v>67</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="13">
         <v>38</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="13">
         <v>77</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="13">
         <v>99</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="13">
         <v>68</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="13">
         <v>32</v>
       </c>
-      <c r="W18" s="14">
-        <v>25</v>
-      </c>
-      <c r="X18" s="14">
+      <c r="W18" s="13">
+        <v>25</v>
+      </c>
+      <c r="X18" s="13">
         <v>20</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="13">
         <v>100</v>
       </c>
       <c r="Z18"/>
     </row>
-    <row r="19" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" t="s">
+      <c r="C19" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3007,65 +3043,65 @@
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>45</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>57</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <v>18</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <v>17</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>26</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <v>24</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <v>26</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="13">
         <v>66</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="13">
         <v>37</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="13">
         <v>72</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="13">
         <v>97</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="13">
         <v>69</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="13">
         <v>32</v>
       </c>
-      <c r="W19" s="14">
-        <v>25</v>
-      </c>
-      <c r="X19" s="14">
+      <c r="W19" s="13">
+        <v>25</v>
+      </c>
+      <c r="X19" s="13">
         <v>20</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="13">
         <v>102</v>
       </c>
       <c r="Z19"/>
     </row>
-    <row r="20" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -3083,65 +3119,65 @@
       <c r="H20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>42</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>57</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>17</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>16</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>26</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>24</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>26</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>67</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="13">
         <v>37</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="13">
         <v>76</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="13">
         <v>96</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="13">
         <v>67</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="13">
         <v>32</v>
       </c>
-      <c r="W20" s="14">
-        <v>25</v>
-      </c>
-      <c r="X20" s="14">
+      <c r="W20" s="13">
+        <v>25</v>
+      </c>
+      <c r="X20" s="13">
         <v>19</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="13">
         <v>97</v>
       </c>
       <c r="Z20"/>
     </row>
-    <row r="21" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" t="s">
+      <c r="C21" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -3159,65 +3195,65 @@
       <c r="H21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>44</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>59</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>18</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>17</v>
       </c>
-      <c r="N21" s="14">
-        <v>27</v>
-      </c>
-      <c r="O21" s="14">
+      <c r="N21" s="13">
+        <v>27</v>
+      </c>
+      <c r="O21" s="13">
         <v>24</v>
       </c>
-      <c r="P21" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="P21" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="13">
         <v>72</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="13">
         <v>38</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="13">
         <v>78</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="13">
         <v>101</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="13">
         <v>68</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="13">
         <v>33</v>
       </c>
-      <c r="W21" s="14">
-        <v>25</v>
-      </c>
-      <c r="X21" s="14">
+      <c r="W21" s="13">
+        <v>25</v>
+      </c>
+      <c r="X21" s="13">
         <v>20</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y21" s="13">
         <v>101</v>
       </c>
       <c r="Z21"/>
     </row>
-    <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" t="s">
+      <c r="C22" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -3235,65 +3271,65 @@
       <c r="H22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>43</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>57</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>17</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>16</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>26</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>24</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>26</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <v>68</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="13">
         <v>36</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="13">
         <v>73</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="13">
         <v>96</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="13">
         <v>66</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="13">
         <v>32</v>
       </c>
-      <c r="W22" s="14">
-        <v>25</v>
-      </c>
-      <c r="X22" s="14">
+      <c r="W22" s="13">
+        <v>25</v>
+      </c>
+      <c r="X22" s="13">
         <v>20</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="13">
         <v>97</v>
       </c>
       <c r="Z22"/>
     </row>
-    <row r="23" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" t="s">
+      <c r="C23" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -3311,65 +3347,65 @@
       <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>46</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>61</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>18</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>17</v>
       </c>
-      <c r="N23" s="14">
-        <v>27</v>
-      </c>
-      <c r="O23" s="14">
-        <v>25</v>
-      </c>
-      <c r="P23" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="14">
+      <c r="N23" s="13">
+        <v>27</v>
+      </c>
+      <c r="O23" s="13">
+        <v>25</v>
+      </c>
+      <c r="P23" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="13">
         <v>69</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="13">
         <v>38</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="13">
         <v>76</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="13">
         <v>100</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="13">
         <v>68</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="13">
         <v>33</v>
       </c>
-      <c r="W23" s="14">
-        <v>25</v>
-      </c>
-      <c r="X23" s="14">
+      <c r="W23" s="13">
+        <v>25</v>
+      </c>
+      <c r="X23" s="13">
         <v>20</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y23" s="13">
         <v>103</v>
       </c>
       <c r="Z23"/>
     </row>
-    <row r="24" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" t="s">
+      <c r="C24" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -3387,65 +3423,65 @@
       <c r="H24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>42</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>57</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>17</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>16</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>26</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>23</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
         <v>26</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="13">
         <v>67</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="13">
         <v>37</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="13">
         <v>73</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="13">
         <v>95</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="13">
         <v>68</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="13">
         <v>31</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W24" s="13">
         <v>46</v>
       </c>
-      <c r="X24" s="14">
-        <v>25</v>
-      </c>
-      <c r="Y24" s="14">
+      <c r="X24" s="13">
+        <v>25</v>
+      </c>
+      <c r="Y24" s="13">
         <v>20</v>
       </c>
       <c r="Z24"/>
     </row>
-    <row r="25" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -3463,65 +3499,65 @@
       <c r="H25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>45</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>57</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <v>18</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <v>17</v>
       </c>
-      <c r="N25" s="14">
-        <v>27</v>
-      </c>
-      <c r="O25" s="14">
-        <v>25</v>
-      </c>
-      <c r="P25" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="14">
+      <c r="N25" s="13">
+        <v>27</v>
+      </c>
+      <c r="O25" s="13">
+        <v>25</v>
+      </c>
+      <c r="P25" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="13">
         <v>66</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="13">
         <v>38</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="13">
         <v>72</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="13">
         <v>97</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="13">
         <v>68</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="13">
         <v>32</v>
       </c>
-      <c r="W25" s="14">
-        <v>25</v>
-      </c>
-      <c r="X25" s="14">
+      <c r="W25" s="13">
+        <v>25</v>
+      </c>
+      <c r="X25" s="13">
         <v>20</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y25" s="13">
         <v>101</v>
       </c>
       <c r="Z25"/>
     </row>
-    <row r="26" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -3539,65 +3575,65 @@
       <c r="H26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>45</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>59</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>18</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <v>17</v>
       </c>
-      <c r="N26" s="14">
-        <v>27</v>
-      </c>
-      <c r="O26" s="14">
-        <v>25</v>
-      </c>
-      <c r="P26" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="14">
+      <c r="N26" s="13">
+        <v>27</v>
+      </c>
+      <c r="O26" s="13">
+        <v>25</v>
+      </c>
+      <c r="P26" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="13">
         <v>68</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="13">
         <v>37</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="13">
         <v>72</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="13">
         <v>95</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="13">
         <v>67</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="13">
         <v>30</v>
       </c>
-      <c r="W26" s="14">
-        <v>25</v>
-      </c>
-      <c r="X26" s="14">
+      <c r="W26" s="13">
+        <v>25</v>
+      </c>
+      <c r="X26" s="13">
         <v>20</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y26" s="13">
         <v>102</v>
       </c>
       <c r="Z26"/>
     </row>
-    <row r="27" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -3615,65 +3651,65 @@
       <c r="H27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>43</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>57</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <v>17</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="13">
         <v>16</v>
       </c>
-      <c r="N27" s="14">
-        <v>27</v>
-      </c>
-      <c r="O27" s="14">
-        <v>25</v>
-      </c>
-      <c r="P27" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="14">
+      <c r="N27" s="13">
+        <v>27</v>
+      </c>
+      <c r="O27" s="13">
+        <v>25</v>
+      </c>
+      <c r="P27" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="13">
         <v>70</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="13">
         <v>38</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="13">
         <v>77</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="13">
         <v>100</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="13">
         <v>67</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="13">
         <v>32</v>
       </c>
-      <c r="W27" s="14">
-        <v>25</v>
-      </c>
-      <c r="X27" s="14">
+      <c r="W27" s="13">
+        <v>25</v>
+      </c>
+      <c r="X27" s="13">
         <v>20</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y27" s="13">
         <v>98</v>
       </c>
       <c r="Z27"/>
     </row>
-    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3691,65 +3727,65 @@
       <c r="H28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>45</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>59</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <v>18</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <v>17</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="13">
         <v>26</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <v>24</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>26</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="13">
         <v>66</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="13">
         <v>37</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="13">
         <v>74</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="13">
         <v>93</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="13">
         <v>68</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="13">
         <v>31</v>
       </c>
-      <c r="W28" s="14">
-        <v>25</v>
-      </c>
-      <c r="X28" s="14">
+      <c r="W28" s="13">
+        <v>25</v>
+      </c>
+      <c r="X28" s="13">
         <v>20</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="13">
         <v>98</v>
       </c>
       <c r="Z28"/>
     </row>
-    <row r="29" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -3767,65 +3803,65 @@
       <c r="H29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>46</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>57</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <v>18</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="13">
         <v>17</v>
       </c>
-      <c r="N29" s="14">
-        <v>27</v>
-      </c>
-      <c r="O29" s="14">
+      <c r="N29" s="13">
+        <v>27</v>
+      </c>
+      <c r="O29" s="13">
         <v>24</v>
       </c>
-      <c r="P29" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="14">
+      <c r="P29" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="13">
         <v>67</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="13">
         <v>37</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="13">
         <v>75</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="13">
         <v>99</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="13">
         <v>68</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="13">
         <v>32</v>
       </c>
-      <c r="W29" s="14">
-        <v>25</v>
-      </c>
-      <c r="X29" s="14">
+      <c r="W29" s="13">
+        <v>25</v>
+      </c>
+      <c r="X29" s="13">
         <v>20</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="13">
         <v>95</v>
       </c>
       <c r="Z29"/>
     </row>
-    <row r="30" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" t="s">
+      <c r="C30" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -3843,63 +3879,63 @@
       <c r="H30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>46</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <v>62</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <v>18</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="13">
         <v>17</v>
       </c>
-      <c r="N30" s="14">
-        <v>27</v>
-      </c>
-      <c r="O30" s="14">
-        <v>25</v>
-      </c>
-      <c r="P30" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="14">
+      <c r="N30" s="13">
+        <v>27</v>
+      </c>
+      <c r="O30" s="13">
+        <v>25</v>
+      </c>
+      <c r="P30" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="13">
         <v>69</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="13">
         <v>38</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="13">
         <v>83</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="13">
         <v>102</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U30" s="13">
         <v>69</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="13">
         <v>34</v>
       </c>
-      <c r="W30" s="14">
-        <v>25</v>
-      </c>
-      <c r="X30" s="14">
+      <c r="W30" s="13">
+        <v>25</v>
+      </c>
+      <c r="X30" s="13">
         <v>97</v>
       </c>
-      <c r="Y30" s="14"/>
+      <c r="Y30" s="13"/>
       <c r="Z30"/>
     </row>
-    <row r="31" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" t="s">
+      <c r="C31" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -3917,65 +3953,65 @@
       <c r="H31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>44</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>59</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>17</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="13">
         <v>16</v>
       </c>
-      <c r="N31" s="14">
-        <v>27</v>
-      </c>
-      <c r="O31" s="14">
-        <v>25</v>
-      </c>
-      <c r="P31" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="14">
+      <c r="N31" s="13">
+        <v>27</v>
+      </c>
+      <c r="O31" s="13">
+        <v>25</v>
+      </c>
+      <c r="P31" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="13">
         <v>71</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="13">
         <v>36</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="13">
         <v>76</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="13">
         <v>102</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="13">
         <v>67</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="13">
         <v>32</v>
       </c>
-      <c r="W31" s="14">
-        <v>25</v>
-      </c>
-      <c r="X31" s="14">
+      <c r="W31" s="13">
+        <v>25</v>
+      </c>
+      <c r="X31" s="13">
         <v>20</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y31" s="13">
         <v>100</v>
       </c>
       <c r="Z31"/>
     </row>
-    <row r="32" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -3993,65 +4029,65 @@
       <c r="H32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>46</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>66</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <v>18</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>17</v>
       </c>
-      <c r="N32" s="14">
-        <v>27</v>
-      </c>
-      <c r="O32" s="14">
-        <v>25</v>
-      </c>
-      <c r="P32" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="14">
+      <c r="N32" s="13">
+        <v>27</v>
+      </c>
+      <c r="O32" s="13">
+        <v>25</v>
+      </c>
+      <c r="P32" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="13">
         <v>65</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="13">
         <v>37</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="13">
         <v>78</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="13">
         <v>101</v>
       </c>
-      <c r="U32" s="14">
+      <c r="U32" s="13">
         <v>69</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="13">
         <v>31</v>
       </c>
-      <c r="W32" s="14">
-        <v>25</v>
-      </c>
-      <c r="X32" s="14">
+      <c r="W32" s="13">
+        <v>25</v>
+      </c>
+      <c r="X32" s="13">
         <v>20</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y32" s="13">
         <v>100</v>
       </c>
       <c r="Z32"/>
     </row>
-    <row r="33" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" t="s">
+      <c r="C33" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4069,65 +4105,65 @@
       <c r="H33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>46</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>59</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <v>18</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <v>17</v>
       </c>
-      <c r="N33" s="14">
-        <v>27</v>
-      </c>
-      <c r="O33" s="14">
-        <v>25</v>
-      </c>
-      <c r="P33" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="14">
+      <c r="N33" s="13">
+        <v>27</v>
+      </c>
+      <c r="O33" s="13">
+        <v>25</v>
+      </c>
+      <c r="P33" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="13">
         <v>68</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="13">
         <v>37</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="13">
         <v>74</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="13">
         <v>99</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="13">
         <v>70</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="13">
         <v>33</v>
       </c>
-      <c r="W33" s="14">
-        <v>25</v>
-      </c>
-      <c r="X33" s="14">
+      <c r="W33" s="13">
+        <v>25</v>
+      </c>
+      <c r="X33" s="13">
         <v>20</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y33" s="13">
         <v>97</v>
       </c>
       <c r="Z33"/>
     </row>
-    <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" t="s">
+      <c r="C34" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4145,65 +4181,65 @@
       <c r="H34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>43</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>58</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <v>17</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="13">
         <v>16</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="13">
         <v>26</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="13">
         <v>23</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="13">
         <v>26</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="13">
         <v>69</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="13">
         <v>36</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="13">
         <v>76</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="13">
         <v>97</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="13">
         <v>65</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="13">
         <v>31</v>
       </c>
-      <c r="W34" s="14">
-        <v>25</v>
-      </c>
-      <c r="X34" s="14">
+      <c r="W34" s="13">
+        <v>25</v>
+      </c>
+      <c r="X34" s="13">
         <v>20</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="13">
         <v>97</v>
       </c>
       <c r="Z34"/>
     </row>
-    <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -4221,65 +4257,65 @@
       <c r="H35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>43</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <v>54</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <v>17</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="13">
         <v>16</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <v>26</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="13">
         <v>24</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="13">
         <v>26</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="13">
         <v>68</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="13">
         <v>37</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="13">
         <v>75</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="13">
         <v>98</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="13">
         <v>67</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="13">
         <v>32</v>
       </c>
-      <c r="W35" s="14">
-        <v>25</v>
-      </c>
-      <c r="X35" s="14">
+      <c r="W35" s="13">
+        <v>25</v>
+      </c>
+      <c r="X35" s="13">
         <v>20</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y35" s="13">
         <v>97</v>
       </c>
       <c r="Z35"/>
     </row>
-    <row r="36" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -4297,65 +4333,65 @@
       <c r="H36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>44</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>58</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <v>17</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="13">
         <v>16</v>
       </c>
-      <c r="N36" s="14">
-        <v>27</v>
-      </c>
-      <c r="O36" s="14">
-        <v>25</v>
-      </c>
-      <c r="P36" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="14">
+      <c r="N36" s="13">
+        <v>27</v>
+      </c>
+      <c r="O36" s="13">
+        <v>25</v>
+      </c>
+      <c r="P36" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="13">
         <v>68</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="13">
         <v>36</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="13">
         <v>73</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="13">
         <v>96</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="13">
         <v>67</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="13">
         <v>31</v>
       </c>
-      <c r="W36" s="14">
-        <v>25</v>
-      </c>
-      <c r="X36" s="14">
+      <c r="W36" s="13">
+        <v>25</v>
+      </c>
+      <c r="X36" s="13">
         <v>20</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y36" s="13">
         <v>99</v>
       </c>
       <c r="Z36"/>
     </row>
-    <row r="37" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" t="s">
+      <c r="C37" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4373,65 +4409,65 @@
       <c r="H37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>42</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>56</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <v>17</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="13">
         <v>16</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="13">
         <v>26</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="13">
         <v>24</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="13">
         <v>26</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="13">
         <v>70</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="13">
         <v>36</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="13">
         <v>70</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="13">
         <v>97</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="13">
         <v>67</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="13">
         <v>32</v>
       </c>
-      <c r="W37" s="14">
-        <v>25</v>
-      </c>
-      <c r="X37" s="14">
+      <c r="W37" s="13">
+        <v>25</v>
+      </c>
+      <c r="X37" s="13">
         <v>20</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Y37" s="13">
         <v>101</v>
       </c>
       <c r="Z37"/>
     </row>
-    <row r="38" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" t="s">
+      <c r="C38" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -4449,65 +4485,65 @@
       <c r="H38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>45</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <v>57</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="13">
         <v>18</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="13">
         <v>17</v>
       </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>25</v>
-      </c>
-      <c r="P38" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="14">
+      <c r="N38" s="13">
+        <v>27</v>
+      </c>
+      <c r="O38" s="13">
+        <v>25</v>
+      </c>
+      <c r="P38" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="13">
         <v>71</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="13">
         <v>40</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="13">
         <v>79</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="13">
         <v>104</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U38" s="13">
         <v>68</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="13">
         <v>3</v>
       </c>
-      <c r="W38" s="14">
-        <v>25</v>
-      </c>
-      <c r="X38" s="14">
+      <c r="W38" s="13">
+        <v>25</v>
+      </c>
+      <c r="X38" s="13">
         <v>20</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y38" s="13">
         <v>97</v>
       </c>
       <c r="Z38"/>
     </row>
-    <row r="39" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" t="s">
+      <c r="C39" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -4525,65 +4561,65 @@
       <c r="H39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>44</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>57</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <v>17</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <v>16</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>26</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>24</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>26</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="13">
         <v>68</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="13">
         <v>39</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="13">
         <v>75</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="13">
         <v>97</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="13">
         <v>67</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="13">
         <v>31</v>
       </c>
-      <c r="W39" s="14">
-        <v>25</v>
-      </c>
-      <c r="X39" s="14">
+      <c r="W39" s="13">
+        <v>25</v>
+      </c>
+      <c r="X39" s="13">
         <v>20</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y39" s="13">
         <v>101</v>
       </c>
       <c r="Z39"/>
     </row>
-    <row r="40" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" t="s">
+      <c r="C40" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -4601,65 +4637,65 @@
       <c r="H40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>45</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <v>58</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <v>18</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="13">
         <v>17</v>
       </c>
-      <c r="N40" s="14">
-        <v>27</v>
-      </c>
-      <c r="O40" s="14">
-        <v>25</v>
-      </c>
-      <c r="P40" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="14">
+      <c r="N40" s="13">
+        <v>27</v>
+      </c>
+      <c r="O40" s="13">
+        <v>25</v>
+      </c>
+      <c r="P40" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="13">
         <v>69</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="13">
         <v>37</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40" s="13">
         <v>76</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="13">
         <v>102</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U40" s="13">
         <v>69</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="13">
         <v>33</v>
       </c>
-      <c r="W40" s="14">
-        <v>25</v>
-      </c>
-      <c r="X40" s="14">
+      <c r="W40" s="13">
+        <v>25</v>
+      </c>
+      <c r="X40" s="13">
         <v>99</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Y40" s="13">
         <v>20</v>
       </c>
       <c r="Z40"/>
     </row>
-    <row r="41" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" t="s">
+      <c r="C41" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -4677,63 +4713,63 @@
       <c r="H41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>45</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>60</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="13">
         <v>18</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="13">
         <v>17</v>
       </c>
-      <c r="N41" s="14">
-        <v>27</v>
-      </c>
-      <c r="O41" s="14">
-        <v>25</v>
-      </c>
-      <c r="P41" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="14">
+      <c r="N41" s="13">
+        <v>27</v>
+      </c>
+      <c r="O41" s="13">
+        <v>25</v>
+      </c>
+      <c r="P41" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="13">
         <v>38</v>
       </c>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14">
+      <c r="R41" s="13"/>
+      <c r="S41" s="13">
         <v>74</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="13">
         <v>94</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="13">
         <v>69</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="13">
         <v>33</v>
       </c>
-      <c r="W41" s="14">
-        <v>25</v>
-      </c>
-      <c r="X41" s="14">
+      <c r="W41" s="13">
+        <v>25</v>
+      </c>
+      <c r="X41" s="13">
         <v>20</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Y41" s="13">
         <v>98</v>
       </c>
       <c r="Z41"/>
     </row>
-    <row r="42" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" t="s">
+      <c r="C42" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -4751,65 +4787,65 @@
       <c r="H42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>46</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>59</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="13">
         <v>18</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="13">
         <v>17</v>
       </c>
-      <c r="N42" s="14">
-        <v>27</v>
-      </c>
-      <c r="O42" s="14">
-        <v>25</v>
-      </c>
-      <c r="P42" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="14">
+      <c r="N42" s="13">
+        <v>27</v>
+      </c>
+      <c r="O42" s="13">
+        <v>25</v>
+      </c>
+      <c r="P42" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="13">
         <v>68</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="13">
         <v>38</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S42" s="13">
         <v>79</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="13">
         <v>103</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U42" s="13">
         <v>71</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V42" s="13">
         <v>33</v>
       </c>
-      <c r="W42" s="14">
-        <v>25</v>
-      </c>
-      <c r="X42" s="14">
+      <c r="W42" s="13">
+        <v>25</v>
+      </c>
+      <c r="X42" s="13">
         <v>20</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Y42" s="13">
         <v>102</v>
       </c>
       <c r="Z42"/>
     </row>
-    <row r="43" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" t="s">
+      <c r="C43" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -4827,65 +4863,65 @@
       <c r="H43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>46</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>59</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="13">
         <v>18</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="13">
         <v>17</v>
       </c>
-      <c r="N43" s="14">
-        <v>27</v>
-      </c>
-      <c r="O43" s="14">
-        <v>25</v>
-      </c>
-      <c r="P43" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="14">
+      <c r="N43" s="13">
+        <v>27</v>
+      </c>
+      <c r="O43" s="13">
+        <v>25</v>
+      </c>
+      <c r="P43" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="13">
         <v>68</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="13">
         <v>36</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43" s="13">
         <v>74</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="13">
         <v>97</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="13">
         <v>69</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="13">
         <v>31</v>
       </c>
-      <c r="W43" s="14">
-        <v>25</v>
-      </c>
-      <c r="X43" s="14">
+      <c r="W43" s="13">
+        <v>25</v>
+      </c>
+      <c r="X43" s="13">
         <v>20</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y43" s="13">
         <v>99</v>
       </c>
       <c r="Z43"/>
     </row>
-    <row r="44" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" t="s">
+      <c r="C44" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -4903,65 +4939,65 @@
       <c r="H44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>42</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <v>59</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="13">
         <v>17</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="13">
         <v>16</v>
       </c>
-      <c r="N44" s="14">
-        <v>27</v>
-      </c>
-      <c r="O44" s="14">
+      <c r="N44" s="13">
+        <v>27</v>
+      </c>
+      <c r="O44" s="13">
         <v>24</v>
       </c>
-      <c r="P44" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="14">
+      <c r="P44" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="13">
         <v>71</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="13">
         <v>38</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="13">
         <v>78</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="13">
         <v>99</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="13">
         <v>67</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="13">
         <v>31</v>
       </c>
-      <c r="W44" s="14">
-        <v>25</v>
-      </c>
-      <c r="X44" s="14">
+      <c r="W44" s="13">
+        <v>25</v>
+      </c>
+      <c r="X44" s="13">
         <v>20</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Y44" s="13">
         <v>100</v>
       </c>
       <c r="Z44"/>
     </row>
-    <row r="45" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" t="s">
+      <c r="C45" s="15" t="s">
         <v>134</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -4979,65 +5015,65 @@
       <c r="H45" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>47</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>63</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="13">
         <v>18</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <v>17</v>
       </c>
-      <c r="N45" s="14">
-        <v>27</v>
-      </c>
-      <c r="O45" s="14">
-        <v>25</v>
-      </c>
-      <c r="P45" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q45" s="14">
+      <c r="N45" s="13">
+        <v>27</v>
+      </c>
+      <c r="O45" s="13">
+        <v>25</v>
+      </c>
+      <c r="P45" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="13">
         <v>68</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="13">
         <v>39</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45" s="13">
         <v>80</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="13">
         <v>106</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="13">
         <v>70</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="13">
         <v>35</v>
       </c>
-      <c r="W45" s="14">
-        <v>25</v>
-      </c>
-      <c r="X45" s="14">
+      <c r="W45" s="13">
+        <v>25</v>
+      </c>
+      <c r="X45" s="13">
         <v>20</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y45" s="13">
         <v>106</v>
       </c>
       <c r="Z45"/>
     </row>
-    <row r="46" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" t="s">
+      <c r="C46" s="15" t="s">
         <v>189</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -5055,65 +5091,65 @@
       <c r="H46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="13">
         <v>46</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="13">
         <v>59</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="13">
         <v>18</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="13">
         <v>17</v>
       </c>
-      <c r="N46" s="14">
-        <v>27</v>
-      </c>
-      <c r="O46" s="14">
-        <v>25</v>
-      </c>
-      <c r="P46" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="14">
+      <c r="N46" s="13">
+        <v>27</v>
+      </c>
+      <c r="O46" s="13">
+        <v>25</v>
+      </c>
+      <c r="P46" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="13">
         <v>68</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="13">
         <v>39</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="13">
         <v>77</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="13">
         <v>100</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="13">
         <v>68</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="13">
         <v>32</v>
       </c>
-      <c r="W46" s="14">
-        <v>25</v>
-      </c>
-      <c r="X46" s="14">
+      <c r="W46" s="13">
+        <v>25</v>
+      </c>
+      <c r="X46" s="13">
         <v>20</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y46" s="13">
         <v>102</v>
       </c>
       <c r="Z46"/>
     </row>
-    <row r="47" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" t="s">
+      <c r="C47" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -5122,74 +5158,74 @@
       <c r="E47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="14">
         <v>134190</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>186</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>46</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <v>60</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="13">
         <v>18</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="13">
         <v>17</v>
       </c>
-      <c r="N47" s="14">
-        <v>27</v>
-      </c>
-      <c r="O47" s="14">
-        <v>25</v>
-      </c>
-      <c r="P47" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="14">
+      <c r="N47" s="13">
+        <v>27</v>
+      </c>
+      <c r="O47" s="13">
+        <v>25</v>
+      </c>
+      <c r="P47" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="13">
         <v>70</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="13">
         <v>38</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="13">
         <v>80</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="13">
         <v>99</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="13">
         <v>69</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="13">
         <v>33</v>
       </c>
-      <c r="W47" s="14">
-        <v>25</v>
-      </c>
-      <c r="X47" s="14">
+      <c r="W47" s="13">
+        <v>25</v>
+      </c>
+      <c r="X47" s="13">
         <v>20</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="13">
         <v>101</v>
       </c>
       <c r="Z47"/>
     </row>
-    <row r="48" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" t="s">
+      <c r="C48" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -5207,65 +5243,65 @@
       <c r="H48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>43</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="13">
         <v>58</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="13">
         <v>17</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="13">
         <v>16</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="13">
         <v>26</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="13">
         <v>24</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="13">
         <v>26</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q48" s="13">
         <v>69</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="13">
         <v>36</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="13">
         <v>74</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="13">
         <v>95</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="13">
         <v>66</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="13">
         <v>31</v>
       </c>
-      <c r="W48" s="14">
-        <v>25</v>
-      </c>
-      <c r="X48" s="14">
+      <c r="W48" s="13">
+        <v>25</v>
+      </c>
+      <c r="X48" s="13">
         <v>20</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y48" s="13">
         <v>99</v>
       </c>
       <c r="Z48"/>
     </row>
-    <row r="49" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" t="s">
+      <c r="C49" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -5283,65 +5319,65 @@
       <c r="H49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <v>46</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <v>59</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="13">
         <v>18</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="13">
         <v>17</v>
       </c>
-      <c r="N49" s="14">
-        <v>27</v>
-      </c>
-      <c r="O49" s="14">
+      <c r="N49" s="13">
+        <v>27</v>
+      </c>
+      <c r="O49" s="13">
         <v>24</v>
       </c>
-      <c r="P49" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="14">
+      <c r="P49" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="13">
         <v>66</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="13">
         <v>38</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49" s="13">
         <v>76</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="13">
         <v>100</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="13">
         <v>68</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="13">
         <v>32</v>
       </c>
-      <c r="W49" s="14">
-        <v>25</v>
-      </c>
-      <c r="X49" s="14">
+      <c r="W49" s="13">
+        <v>25</v>
+      </c>
+      <c r="X49" s="13">
         <v>20</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y49" s="13">
         <v>102</v>
       </c>
       <c r="Z49"/>
     </row>
-    <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5359,65 +5395,65 @@
       <c r="H50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <v>47</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <v>63</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="13">
         <v>18</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="13">
         <v>17</v>
       </c>
-      <c r="N50" s="14">
-        <v>27</v>
-      </c>
-      <c r="O50" s="14">
-        <v>25</v>
-      </c>
-      <c r="P50" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="14">
+      <c r="N50" s="13">
+        <v>27</v>
+      </c>
+      <c r="O50" s="13">
+        <v>25</v>
+      </c>
+      <c r="P50" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="13">
         <v>70</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="13">
         <v>39</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="13">
         <v>79</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T50" s="13">
         <v>103</v>
       </c>
-      <c r="U50" s="14">
+      <c r="U50" s="13">
         <v>69</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V50" s="13">
         <v>33</v>
       </c>
-      <c r="W50" s="14">
-        <v>25</v>
-      </c>
-      <c r="X50" s="14">
+      <c r="W50" s="13">
+        <v>25</v>
+      </c>
+      <c r="X50" s="13">
         <v>20</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y50" s="13">
         <v>103</v>
       </c>
       <c r="Z50"/>
     </row>
-    <row r="51" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -5435,65 +5471,65 @@
       <c r="H51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <v>46</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <v>61</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="13">
         <v>18</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="13">
         <v>17</v>
       </c>
-      <c r="N51" s="14">
-        <v>27</v>
-      </c>
-      <c r="O51" s="14">
-        <v>25</v>
-      </c>
-      <c r="P51" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="14">
+      <c r="N51" s="13">
+        <v>27</v>
+      </c>
+      <c r="O51" s="13">
+        <v>25</v>
+      </c>
+      <c r="P51" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="13">
         <v>70</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="13">
         <v>37</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="13">
         <v>81</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="13">
         <v>103</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U51" s="13">
         <v>70</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="13">
         <v>33</v>
       </c>
-      <c r="W51" s="14">
-        <v>25</v>
-      </c>
-      <c r="X51" s="14">
+      <c r="W51" s="13">
+        <v>25</v>
+      </c>
+      <c r="X51" s="13">
         <v>20</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Y51" s="13">
         <v>102</v>
       </c>
       <c r="Z51"/>
     </row>
-    <row r="52" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" t="s">
+      <c r="C52" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -5511,65 +5547,65 @@
       <c r="H52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="I52" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <v>43</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="13">
         <v>60</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="13">
         <v>17</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="13">
         <v>16</v>
       </c>
-      <c r="N52" s="14">
-        <v>27</v>
-      </c>
-      <c r="O52" s="14">
+      <c r="N52" s="13">
+        <v>27</v>
+      </c>
+      <c r="O52" s="13">
         <v>24</v>
       </c>
-      <c r="P52" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="14">
+      <c r="P52" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="13">
         <v>71</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52" s="13">
         <v>37</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52" s="13">
         <v>77</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="13">
         <v>99</v>
       </c>
-      <c r="U52" s="14">
+      <c r="U52" s="13">
         <v>69</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="13">
         <v>32</v>
       </c>
-      <c r="W52" s="14">
-        <v>25</v>
-      </c>
-      <c r="X52" s="14">
+      <c r="W52" s="13">
+        <v>25</v>
+      </c>
+      <c r="X52" s="13">
         <v>20</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y52" s="13">
         <v>103</v>
       </c>
       <c r="Z52"/>
     </row>
-    <row r="53" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" t="s">
+      <c r="C53" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -5587,65 +5623,65 @@
       <c r="H53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>46</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <v>59</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="13">
         <v>18</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="13">
         <v>17</v>
       </c>
-      <c r="N53" s="14">
-        <v>27</v>
-      </c>
-      <c r="O53" s="14">
-        <v>25</v>
-      </c>
-      <c r="P53" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="14">
+      <c r="N53" s="13">
+        <v>27</v>
+      </c>
+      <c r="O53" s="13">
+        <v>25</v>
+      </c>
+      <c r="P53" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="13">
         <v>68</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R53" s="13">
         <v>37</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S53" s="13">
         <v>75</v>
       </c>
-      <c r="T53" s="14">
+      <c r="T53" s="13">
         <v>102</v>
       </c>
-      <c r="U53" s="14">
+      <c r="U53" s="13">
         <v>69</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="13">
         <v>33</v>
       </c>
-      <c r="W53" s="14">
-        <v>25</v>
-      </c>
-      <c r="X53" s="14">
+      <c r="W53" s="13">
+        <v>25</v>
+      </c>
+      <c r="X53" s="13">
         <v>20</v>
       </c>
-      <c r="Y53" s="14">
+      <c r="Y53" s="13">
         <v>104</v>
       </c>
       <c r="Z53"/>
     </row>
-    <row r="54" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" t="s">
+      <c r="C54" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -5663,65 +5699,65 @@
       <c r="H54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>46</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="13">
         <v>62</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="13">
         <v>18</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="13">
         <v>17</v>
       </c>
-      <c r="N54" s="14">
-        <v>27</v>
-      </c>
-      <c r="O54" s="14">
-        <v>25</v>
-      </c>
-      <c r="P54" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q54" s="14">
+      <c r="N54" s="13">
+        <v>27</v>
+      </c>
+      <c r="O54" s="13">
+        <v>25</v>
+      </c>
+      <c r="P54" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q54" s="13">
         <v>67</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54" s="13">
         <v>38</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S54" s="13">
         <v>74</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T54" s="13">
         <v>100</v>
       </c>
-      <c r="U54" s="14">
+      <c r="U54" s="13">
         <v>70</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V54" s="13">
         <v>32</v>
       </c>
-      <c r="W54" s="14">
-        <v>25</v>
-      </c>
-      <c r="X54" s="14">
+      <c r="W54" s="13">
+        <v>25</v>
+      </c>
+      <c r="X54" s="13">
         <v>20</v>
       </c>
-      <c r="Y54" s="14">
+      <c r="Y54" s="13">
         <v>104</v>
       </c>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" t="s">
+      <c r="C55" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -5739,65 +5775,65 @@
       <c r="H55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>45</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="13">
         <v>57</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="13">
         <v>18</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="13">
         <v>17</v>
       </c>
-      <c r="N55" s="14">
-        <v>27</v>
-      </c>
-      <c r="O55" s="14">
-        <v>25</v>
-      </c>
-      <c r="P55" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q55" s="14">
+      <c r="N55" s="13">
+        <v>27</v>
+      </c>
+      <c r="O55" s="13">
+        <v>25</v>
+      </c>
+      <c r="P55" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="13">
         <v>68</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55" s="13">
         <v>37</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S55" s="13">
         <v>75</v>
       </c>
-      <c r="T55" s="14">
+      <c r="T55" s="13">
         <v>94</v>
       </c>
-      <c r="U55" s="14">
+      <c r="U55" s="13">
         <v>68</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="13">
         <v>31</v>
       </c>
-      <c r="W55" s="14">
-        <v>25</v>
-      </c>
-      <c r="X55" s="14">
+      <c r="W55" s="13">
+        <v>25</v>
+      </c>
+      <c r="X55" s="13">
         <v>20</v>
       </c>
-      <c r="Y55" s="14">
+      <c r="Y55" s="13">
         <v>97</v>
       </c>
       <c r="Z55"/>
     </row>
-    <row r="56" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" t="s">
+      <c r="C56" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -5815,65 +5851,65 @@
       <c r="H56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>44</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="13">
         <v>60</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="13">
         <v>17</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="13">
         <v>16</v>
       </c>
-      <c r="N56" s="14">
-        <v>27</v>
-      </c>
-      <c r="O56" s="14">
+      <c r="N56" s="13">
+        <v>27</v>
+      </c>
+      <c r="O56" s="13">
         <v>24</v>
       </c>
-      <c r="P56" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q56" s="14">
+      <c r="P56" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="13">
         <v>71</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56" s="13">
         <v>37</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S56" s="13">
         <v>74</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T56" s="13">
         <v>97</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U56" s="13">
         <v>69</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="13">
         <v>31</v>
       </c>
-      <c r="W56" s="14">
-        <v>25</v>
-      </c>
-      <c r="X56" s="14">
+      <c r="W56" s="13">
+        <v>25</v>
+      </c>
+      <c r="X56" s="13">
         <v>20</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y56" s="13">
         <v>102</v>
       </c>
       <c r="Z56"/>
     </row>
-    <row r="57" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" t="s">
+      <c r="C57" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -5891,65 +5927,65 @@
       <c r="H57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>43</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="13">
         <v>56</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="13">
         <v>17</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="13">
         <v>16</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="13">
         <v>26</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="13">
         <v>24</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="13">
         <v>26</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q57" s="13">
         <v>67</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="13">
         <v>37</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S57" s="13">
         <v>74</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57" s="13">
         <v>94</v>
       </c>
-      <c r="U57" s="14">
+      <c r="U57" s="13">
         <v>67</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="13">
         <v>32</v>
       </c>
-      <c r="W57" s="14">
-        <v>25</v>
-      </c>
-      <c r="X57" s="14">
+      <c r="W57" s="13">
+        <v>25</v>
+      </c>
+      <c r="X57" s="13">
         <v>20</v>
       </c>
-      <c r="Y57" s="14">
+      <c r="Y57" s="13">
         <v>97</v>
       </c>
       <c r="Z57"/>
     </row>
-    <row r="58" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" t="s">
+      <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -5967,65 +6003,65 @@
       <c r="H58" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <v>45</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="13">
         <v>59</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="13">
         <v>18</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="13">
         <v>17</v>
       </c>
-      <c r="N58" s="14">
-        <v>27</v>
-      </c>
-      <c r="O58" s="14">
+      <c r="N58" s="13">
+        <v>27</v>
+      </c>
+      <c r="O58" s="13">
         <v>24</v>
       </c>
-      <c r="P58" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q58" s="14">
+      <c r="P58" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q58" s="13">
         <v>68</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R58" s="13">
         <v>38</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S58" s="13">
         <v>74</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T58" s="13">
         <v>99</v>
       </c>
-      <c r="U58" s="14">
+      <c r="U58" s="13">
         <v>69</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="13">
         <v>32</v>
       </c>
-      <c r="W58" s="14">
-        <v>25</v>
-      </c>
-      <c r="X58" s="14">
+      <c r="W58" s="13">
+        <v>25</v>
+      </c>
+      <c r="X58" s="13">
         <v>20</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Y58" s="13">
         <v>99</v>
       </c>
-      <c r="Z58" s="14"/>
-    </row>
-    <row r="59" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z58" s="13"/>
+    </row>
+    <row r="59" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" t="s">
+      <c r="C59" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -6043,65 +6079,65 @@
       <c r="H59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>44</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <v>55</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="13">
         <v>17</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="13">
         <v>16</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="13">
         <v>26</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="13">
         <v>24</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="13">
         <v>26</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q59" s="13">
         <v>67</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59" s="13">
         <v>37</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S59" s="13">
         <v>74</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T59" s="13">
         <v>94</v>
       </c>
-      <c r="U59" s="14">
+      <c r="U59" s="13">
         <v>66</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="13">
         <v>31</v>
       </c>
-      <c r="W59" s="14">
-        <v>25</v>
-      </c>
-      <c r="X59" s="14">
+      <c r="W59" s="13">
+        <v>25</v>
+      </c>
+      <c r="X59" s="13">
         <v>20</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Y59" s="13">
         <v>96</v>
       </c>
-      <c r="Z59" s="14"/>
-    </row>
-    <row r="60" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z59" s="13"/>
+    </row>
+    <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" t="s">
+      <c r="C60" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -6119,65 +6155,65 @@
       <c r="H60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>43</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="13">
         <v>59</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="13">
         <v>17</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="13">
         <v>16</v>
       </c>
-      <c r="N60" s="14">
-        <v>27</v>
-      </c>
-      <c r="O60" s="14">
+      <c r="N60" s="13">
+        <v>27</v>
+      </c>
+      <c r="O60" s="13">
         <v>24</v>
       </c>
-      <c r="P60" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q60" s="14">
+      <c r="P60" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="13">
         <v>73</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R60" s="13">
         <v>37</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S60" s="13">
         <v>73</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T60" s="13">
         <v>100</v>
       </c>
-      <c r="U60" s="14">
+      <c r="U60" s="13">
         <v>68</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V60" s="13">
         <v>32</v>
       </c>
-      <c r="W60" s="14">
-        <v>25</v>
-      </c>
-      <c r="X60" s="14">
+      <c r="W60" s="13">
+        <v>25</v>
+      </c>
+      <c r="X60" s="13">
         <v>20</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Y60" s="13">
         <v>101</v>
       </c>
-      <c r="Z60" s="14"/>
-    </row>
-    <row r="61" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z60" s="13"/>
+    </row>
+    <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" t="s">
+      <c r="C61" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -6195,65 +6231,65 @@
       <c r="H61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>43</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="13">
         <v>57</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="13">
         <v>17</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="13">
         <v>16</v>
       </c>
-      <c r="N61" s="14">
-        <v>27</v>
-      </c>
-      <c r="O61" s="14">
+      <c r="N61" s="13">
+        <v>27</v>
+      </c>
+      <c r="O61" s="13">
         <v>24</v>
       </c>
-      <c r="P61" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q61" s="14">
+      <c r="P61" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="13">
         <v>71</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="13">
         <v>38</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61" s="13">
         <v>80</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="13">
         <v>100</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="13">
         <v>67</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="13">
         <v>32</v>
       </c>
-      <c r="W61" s="14">
-        <v>25</v>
-      </c>
-      <c r="X61" s="14">
+      <c r="W61" s="13">
+        <v>25</v>
+      </c>
+      <c r="X61" s="13">
         <v>20</v>
       </c>
-      <c r="Y61" s="14">
+      <c r="Y61" s="13">
         <v>97</v>
       </c>
-      <c r="Z61" s="14"/>
-    </row>
-    <row r="62" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z61" s="13"/>
+    </row>
+    <row r="62" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" t="s">
+      <c r="C62" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -6271,65 +6307,65 @@
       <c r="H62" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>46</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="13">
         <v>61</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="13">
         <v>18</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="13">
         <v>17</v>
       </c>
-      <c r="N62" s="14">
-        <v>27</v>
-      </c>
-      <c r="O62" s="14">
-        <v>25</v>
-      </c>
-      <c r="P62" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q62" s="14">
+      <c r="N62" s="13">
+        <v>27</v>
+      </c>
+      <c r="O62" s="13">
+        <v>25</v>
+      </c>
+      <c r="P62" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="13">
         <v>68</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R62" s="13">
         <v>38</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S62" s="13">
         <v>75</v>
       </c>
-      <c r="T62" s="14">
+      <c r="T62" s="13">
         <v>101</v>
       </c>
-      <c r="U62" s="14">
+      <c r="U62" s="13">
         <v>70</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V62" s="13">
         <v>33</v>
       </c>
-      <c r="W62" s="14">
-        <v>25</v>
-      </c>
-      <c r="X62" s="14">
+      <c r="W62" s="13">
+        <v>25</v>
+      </c>
+      <c r="X62" s="13">
         <v>20</v>
       </c>
-      <c r="Y62" s="14">
+      <c r="Y62" s="13">
         <v>103</v>
       </c>
-      <c r="Z62" s="14"/>
-    </row>
-    <row r="63" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="13"/>
+    </row>
+    <row r="63" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" t="s">
+      <c r="C63" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -6347,65 +6383,65 @@
       <c r="H63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>47</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <v>59</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="13">
         <v>18</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="13">
         <v>17</v>
       </c>
-      <c r="N63" s="14">
-        <v>27</v>
-      </c>
-      <c r="O63" s="14">
+      <c r="N63" s="13">
+        <v>27</v>
+      </c>
+      <c r="O63" s="13">
         <v>24</v>
       </c>
-      <c r="P63" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q63" s="14">
+      <c r="P63" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q63" s="13">
         <v>67</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63" s="13">
         <v>38</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S63" s="13">
         <v>73</v>
       </c>
-      <c r="T63" s="14">
+      <c r="T63" s="13">
         <v>97</v>
       </c>
-      <c r="U63" s="14">
+      <c r="U63" s="13">
         <v>69</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V63" s="13">
         <v>33</v>
       </c>
-      <c r="W63" s="14">
-        <v>25</v>
-      </c>
-      <c r="X63" s="14">
+      <c r="W63" s="13">
+        <v>25</v>
+      </c>
+      <c r="X63" s="13">
         <v>20</v>
       </c>
-      <c r="Y63" s="14">
+      <c r="Y63" s="13">
         <v>103</v>
       </c>
-      <c r="Z63" s="14"/>
-    </row>
-    <row r="64" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z63" s="13"/>
+    </row>
+    <row r="64" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>248</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" t="s">
+      <c r="C64" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -6423,65 +6459,65 @@
       <c r="H64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>43</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <v>57</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="13">
         <v>17</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="13">
         <v>17</v>
       </c>
-      <c r="N64" s="14">
-        <v>27</v>
-      </c>
-      <c r="O64" s="14">
+      <c r="N64" s="13">
+        <v>27</v>
+      </c>
+      <c r="O64" s="13">
         <v>24</v>
       </c>
-      <c r="P64" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q64" s="14">
+      <c r="P64" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q64" s="13">
         <v>68</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R64" s="13">
         <v>37</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S64" s="13">
         <v>77</v>
       </c>
-      <c r="T64" s="14">
+      <c r="T64" s="13">
         <v>99</v>
       </c>
-      <c r="U64" s="14">
+      <c r="U64" s="13">
         <v>70</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V64" s="13">
         <v>34</v>
       </c>
-      <c r="W64" s="14">
-        <v>25</v>
-      </c>
-      <c r="X64" s="14">
+      <c r="W64" s="13">
+        <v>25</v>
+      </c>
+      <c r="X64" s="13">
         <v>20</v>
       </c>
-      <c r="Y64" s="14">
+      <c r="Y64" s="13">
         <v>98</v>
       </c>
-      <c r="Z64" s="14"/>
-    </row>
-    <row r="65" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z64" s="13"/>
+    </row>
+    <row r="65" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" t="s">
+      <c r="C65" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -6499,65 +6535,65 @@
       <c r="H65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>44</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
         <v>63</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="13">
         <v>18</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="13">
         <v>17</v>
       </c>
-      <c r="N65" s="14">
-        <v>27</v>
-      </c>
-      <c r="O65" s="14">
-        <v>25</v>
-      </c>
-      <c r="P65" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q65" s="14">
+      <c r="N65" s="13">
+        <v>27</v>
+      </c>
+      <c r="O65" s="13">
+        <v>25</v>
+      </c>
+      <c r="P65" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q65" s="13">
         <v>73</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R65" s="13">
         <v>40</v>
       </c>
-      <c r="S65" s="14">
+      <c r="S65" s="13">
         <v>82</v>
       </c>
-      <c r="T65" s="14">
+      <c r="T65" s="13">
         <v>106</v>
       </c>
-      <c r="U65" s="14">
+      <c r="U65" s="13">
         <v>68</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="13">
         <v>34</v>
       </c>
-      <c r="W65" s="14">
+      <c r="W65" s="13">
         <v>26</v>
       </c>
-      <c r="X65" s="14">
+      <c r="X65" s="13">
         <v>20</v>
       </c>
-      <c r="Y65" s="14">
+      <c r="Y65" s="13">
         <v>101</v>
       </c>
-      <c r="Z65" s="14"/>
-    </row>
-    <row r="66" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z65" s="13"/>
+    </row>
+    <row r="66" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" t="s">
+      <c r="C66" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -6575,65 +6611,65 @@
       <c r="H66" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>46</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="13">
         <v>57</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="13">
         <v>18</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="13">
         <v>17</v>
       </c>
-      <c r="N66" s="14">
-        <v>27</v>
-      </c>
-      <c r="O66" s="14">
-        <v>25</v>
-      </c>
-      <c r="P66" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q66" s="14">
+      <c r="N66" s="13">
+        <v>27</v>
+      </c>
+      <c r="O66" s="13">
+        <v>25</v>
+      </c>
+      <c r="P66" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="13">
         <v>68</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R66" s="13">
         <v>38</v>
       </c>
-      <c r="S66" s="14">
+      <c r="S66" s="13">
         <v>74</v>
       </c>
-      <c r="T66" s="14">
+      <c r="T66" s="13">
         <v>100</v>
       </c>
-      <c r="U66" s="14">
+      <c r="U66" s="13">
         <v>68</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V66" s="13">
         <v>32</v>
       </c>
-      <c r="W66" s="14">
-        <v>25</v>
-      </c>
-      <c r="X66" s="14">
+      <c r="W66" s="13">
+        <v>25</v>
+      </c>
+      <c r="X66" s="13">
         <v>20</v>
       </c>
-      <c r="Y66" s="14">
+      <c r="Y66" s="13">
         <v>101</v>
       </c>
-      <c r="Z66" s="14"/>
-    </row>
-    <row r="67" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z66" s="13"/>
+    </row>
+    <row r="67" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" t="s">
+      <c r="C67" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -6651,61 +6687,61 @@
       <c r="H67" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>47</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="13">
         <v>62</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="13">
         <v>28</v>
       </c>
-      <c r="M67" s="14">
-        <v>25</v>
-      </c>
-      <c r="N67" s="14">
+      <c r="M67" s="13">
+        <v>25</v>
+      </c>
+      <c r="N67" s="13">
         <v>28</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O67" s="13">
         <v>68</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P67" s="13">
         <v>38</v>
       </c>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13">
         <v>82</v>
       </c>
-      <c r="T67" s="14">
+      <c r="T67" s="13">
         <v>102</v>
       </c>
-      <c r="U67" s="14">
+      <c r="U67" s="13">
         <v>68</v>
       </c>
-      <c r="V67" s="14">
+      <c r="V67" s="13">
         <v>34</v>
       </c>
-      <c r="W67" s="14">
-        <v>25</v>
-      </c>
-      <c r="X67" s="14">
+      <c r="W67" s="13">
+        <v>25</v>
+      </c>
+      <c r="X67" s="13">
         <v>20</v>
       </c>
-      <c r="Y67" s="14">
+      <c r="Y67" s="13">
         <v>105</v>
       </c>
-      <c r="Z67" s="14"/>
-    </row>
-    <row r="68" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z67" s="13"/>
+    </row>
+    <row r="68" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>252</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" t="s">
+      <c r="C68" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -6723,65 +6759,65 @@
       <c r="H68" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>45</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="13">
         <v>59</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="13">
         <v>18</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="13">
         <v>17</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N68" s="13">
         <v>26</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="13">
         <v>24</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="13">
         <v>26</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="13">
         <v>66</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="13">
         <v>36</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S68" s="13">
         <v>72</v>
       </c>
-      <c r="T68" s="14">
+      <c r="T68" s="13">
         <v>95</v>
       </c>
-      <c r="U68" s="14">
+      <c r="U68" s="13">
         <v>68</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="13">
         <v>32</v>
       </c>
-      <c r="W68" s="14">
-        <v>25</v>
-      </c>
-      <c r="X68" s="14">
+      <c r="W68" s="13">
+        <v>25</v>
+      </c>
+      <c r="X68" s="13">
         <v>20</v>
       </c>
-      <c r="Y68" s="14">
+      <c r="Y68" s="13">
         <v>100</v>
       </c>
-      <c r="Z68" s="14"/>
-    </row>
-    <row r="69" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z68" s="13"/>
+    </row>
+    <row r="69" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" t="s">
+      <c r="C69" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -6799,65 +6835,65 @@
       <c r="H69" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>46</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="13">
         <v>60</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="13">
         <v>18</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="13">
         <v>17</v>
       </c>
-      <c r="N69" s="14">
-        <v>27</v>
-      </c>
-      <c r="O69" s="14">
-        <v>25</v>
-      </c>
-      <c r="P69" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q69" s="14">
+      <c r="N69" s="13">
+        <v>27</v>
+      </c>
+      <c r="O69" s="13">
+        <v>25</v>
+      </c>
+      <c r="P69" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="13">
         <v>67</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R69" s="13">
         <v>38</v>
       </c>
-      <c r="S69" s="14">
+      <c r="S69" s="13">
         <v>76</v>
       </c>
-      <c r="T69" s="14">
+      <c r="T69" s="13">
         <v>100</v>
       </c>
-      <c r="U69" s="14">
+      <c r="U69" s="13">
         <v>68</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V69" s="13">
         <v>31</v>
       </c>
-      <c r="W69" s="14">
+      <c r="W69" s="13">
         <v>24</v>
       </c>
-      <c r="X69" s="14">
+      <c r="X69" s="13">
         <v>20</v>
       </c>
-      <c r="Y69" s="14">
+      <c r="Y69" s="13">
         <v>100</v>
       </c>
-      <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="13"/>
+    </row>
+    <row r="70" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" t="s">
+      <c r="C70" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -6875,65 +6911,65 @@
       <c r="H70" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>44</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="13">
         <v>54</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="13">
         <v>18</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="13">
         <v>17</v>
       </c>
-      <c r="N70" s="14">
-        <v>27</v>
-      </c>
-      <c r="O70" s="14">
+      <c r="N70" s="13">
+        <v>27</v>
+      </c>
+      <c r="O70" s="13">
         <v>24</v>
       </c>
-      <c r="P70" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q70" s="14">
+      <c r="P70" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q70" s="13">
         <v>67</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R70" s="13">
         <v>38</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S70" s="13">
         <v>74</v>
       </c>
-      <c r="T70" s="14">
+      <c r="T70" s="13">
         <v>96</v>
       </c>
-      <c r="U70" s="14">
+      <c r="U70" s="13">
         <v>68</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V70" s="13">
         <v>32</v>
       </c>
-      <c r="W70" s="14">
-        <v>25</v>
-      </c>
-      <c r="X70" s="14">
+      <c r="W70" s="13">
+        <v>25</v>
+      </c>
+      <c r="X70" s="13">
         <v>20</v>
       </c>
-      <c r="Y70" s="14">
+      <c r="Y70" s="13">
         <v>96</v>
       </c>
-      <c r="Z70" s="14"/>
-    </row>
-    <row r="71" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z70" s="13"/>
+    </row>
+    <row r="71" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" t="s">
+      <c r="C71" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -6951,65 +6987,65 @@
       <c r="H71" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="13">
         <v>46</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="13">
         <v>57</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="13">
         <v>18</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M71" s="13">
         <v>17</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N71" s="13">
         <v>26</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O71" s="13">
         <v>23</v>
       </c>
-      <c r="P71" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q71" s="14">
+      <c r="P71" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="13">
         <v>65</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R71" s="13">
         <v>36</v>
       </c>
-      <c r="S71" s="14">
+      <c r="S71" s="13">
         <v>71</v>
       </c>
-      <c r="T71" s="14">
+      <c r="T71" s="13">
         <v>99</v>
       </c>
-      <c r="U71" s="14">
+      <c r="U71" s="13">
         <v>68</v>
       </c>
-      <c r="V71" s="14">
+      <c r="V71" s="13">
         <v>31</v>
       </c>
-      <c r="W71" s="14">
-        <v>25</v>
-      </c>
-      <c r="X71" s="14">
+      <c r="W71" s="13">
+        <v>25</v>
+      </c>
+      <c r="X71" s="13">
         <v>20</v>
       </c>
-      <c r="Y71" s="14">
+      <c r="Y71" s="13">
         <v>98</v>
       </c>
-      <c r="Z71" s="14"/>
-    </row>
-    <row r="72" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z71" s="13"/>
+    </row>
+    <row r="72" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" t="s">
+      <c r="C72" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -7027,65 +7063,65 @@
       <c r="H72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="I72" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>43</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="13">
         <v>58</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="13">
         <v>17</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="13">
         <v>16</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N72" s="13">
         <v>26</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="13">
         <v>24</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="13">
         <v>26</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q72" s="13">
         <v>68</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R72" s="13">
         <v>38</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S72" s="13">
         <v>78</v>
       </c>
-      <c r="T72" s="14">
+      <c r="T72" s="13">
         <v>97</v>
       </c>
-      <c r="U72" s="14">
+      <c r="U72" s="13">
         <v>67</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V72" s="13">
         <v>32</v>
       </c>
-      <c r="W72" s="14">
-        <v>25</v>
-      </c>
-      <c r="X72" s="14">
+      <c r="W72" s="13">
+        <v>25</v>
+      </c>
+      <c r="X72" s="13">
         <v>20</v>
       </c>
-      <c r="Y72" s="14">
+      <c r="Y72" s="13">
         <v>96</v>
       </c>
-      <c r="Z72" s="14"/>
-    </row>
-    <row r="73" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z72" s="13"/>
+    </row>
+    <row r="73" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" t="s">
+      <c r="C73" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -7103,65 +7139,65 @@
       <c r="H73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="13">
         <v>46</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K73" s="13">
         <v>59</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="13">
         <v>18</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M73" s="13">
         <v>17</v>
       </c>
-      <c r="N73" s="14">
-        <v>27</v>
-      </c>
-      <c r="O73" s="14">
-        <v>25</v>
-      </c>
-      <c r="P73" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q73" s="14">
+      <c r="N73" s="13">
+        <v>27</v>
+      </c>
+      <c r="O73" s="13">
+        <v>25</v>
+      </c>
+      <c r="P73" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q73" s="13">
         <v>67</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R73" s="13">
         <v>38</v>
       </c>
-      <c r="S73" s="14">
+      <c r="S73" s="13">
         <v>75</v>
       </c>
-      <c r="T73" s="14">
+      <c r="T73" s="13">
         <v>101</v>
       </c>
-      <c r="U73" s="14">
+      <c r="U73" s="13">
         <v>68</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V73" s="13">
         <v>33</v>
       </c>
-      <c r="W73" s="14">
-        <v>25</v>
-      </c>
-      <c r="X73" s="14">
+      <c r="W73" s="13">
+        <v>25</v>
+      </c>
+      <c r="X73" s="13">
         <v>20</v>
       </c>
-      <c r="Y73" s="14">
+      <c r="Y73" s="13">
         <v>101</v>
       </c>
-      <c r="Z73" s="14"/>
-    </row>
-    <row r="74" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="13"/>
+    </row>
+    <row r="74" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" t="s">
+      <c r="C74" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -7179,65 +7215,65 @@
       <c r="H74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="I74" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="13">
         <v>46</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K74" s="13">
         <v>59</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="13">
         <v>18</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M74" s="13">
         <v>17</v>
       </c>
-      <c r="N74" s="14">
-        <v>27</v>
-      </c>
-      <c r="O74" s="14">
-        <v>25</v>
-      </c>
-      <c r="P74" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q74" s="14">
+      <c r="N74" s="13">
+        <v>27</v>
+      </c>
+      <c r="O74" s="13">
+        <v>25</v>
+      </c>
+      <c r="P74" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q74" s="13">
         <v>69</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R74" s="13">
         <v>38</v>
       </c>
-      <c r="S74" s="14">
+      <c r="S74" s="13">
         <v>77</v>
       </c>
-      <c r="T74" s="14">
+      <c r="T74" s="13">
         <v>101</v>
       </c>
-      <c r="U74" s="14">
+      <c r="U74" s="13">
         <v>69</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V74" s="13">
         <v>33</v>
       </c>
-      <c r="W74" s="14">
-        <v>25</v>
-      </c>
-      <c r="X74" s="14">
+      <c r="W74" s="13">
+        <v>25</v>
+      </c>
+      <c r="X74" s="13">
         <v>20</v>
       </c>
-      <c r="Y74" s="14">
+      <c r="Y74" s="13">
         <v>102</v>
       </c>
-      <c r="Z74" s="14"/>
-    </row>
-    <row r="75" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z74" s="13"/>
+    </row>
+    <row r="75" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" t="s">
+      <c r="C75" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -7255,65 +7291,65 @@
       <c r="H75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>44</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K75" s="13">
         <v>60</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="13">
         <v>19</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="13">
         <v>18</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N75" s="13">
         <v>28</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O75" s="13">
         <v>26</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P75" s="13">
         <v>28</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q75" s="13">
         <v>72</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R75" s="13">
         <v>38</v>
       </c>
-      <c r="S75" s="14">
+      <c r="S75" s="13">
         <v>80</v>
       </c>
-      <c r="T75" s="14">
+      <c r="T75" s="13">
         <v>104</v>
       </c>
-      <c r="U75" s="14">
+      <c r="U75" s="13">
         <v>68</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V75" s="13">
         <v>33</v>
       </c>
-      <c r="W75" s="14">
-        <v>25</v>
-      </c>
-      <c r="X75" s="14">
+      <c r="W75" s="13">
+        <v>25</v>
+      </c>
+      <c r="X75" s="13">
         <v>20</v>
       </c>
-      <c r="Y75" s="14">
+      <c r="Y75" s="13">
         <v>101</v>
       </c>
-      <c r="Z75" s="14"/>
-    </row>
-    <row r="76" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="13"/>
+    </row>
+    <row r="76" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -7331,65 +7367,65 @@
       <c r="H76" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="I76" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>43</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K76" s="13">
         <v>57</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="13">
         <v>17</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M76" s="13">
         <v>16</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N76" s="13">
         <v>26</v>
       </c>
-      <c r="O76" s="14">
-        <v>25</v>
-      </c>
-      <c r="P76" s="14">
+      <c r="O76" s="13">
+        <v>25</v>
+      </c>
+      <c r="P76" s="13">
         <v>26</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q76" s="13">
         <v>69</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R76" s="13">
         <v>38</v>
       </c>
-      <c r="S76" s="14">
+      <c r="S76" s="13">
         <v>72</v>
       </c>
-      <c r="T76" s="14">
+      <c r="T76" s="13">
         <v>98</v>
       </c>
-      <c r="U76" s="14">
+      <c r="U76" s="13">
         <v>68</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V76" s="13">
         <v>32</v>
       </c>
-      <c r="W76" s="14">
-        <v>25</v>
-      </c>
-      <c r="X76" s="14">
+      <c r="W76" s="13">
+        <v>25</v>
+      </c>
+      <c r="X76" s="13">
         <v>20</v>
       </c>
-      <c r="Y76" s="14">
+      <c r="Y76" s="13">
         <v>100</v>
       </c>
-      <c r="Z76" s="14"/>
-    </row>
-    <row r="77" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z76" s="13"/>
+    </row>
+    <row r="77" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -7407,65 +7443,65 @@
       <c r="H77" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="13">
         <v>45</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="13">
         <v>60</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="13">
         <v>16</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M77" s="13">
         <v>16</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N77" s="13">
         <v>26</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O77" s="13">
         <v>24</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P77" s="13">
         <v>26</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q77" s="13">
         <v>71</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R77" s="13">
         <v>37</v>
       </c>
-      <c r="S77" s="14">
+      <c r="S77" s="13">
         <v>73</v>
       </c>
-      <c r="T77" s="14">
+      <c r="T77" s="13">
         <v>98</v>
       </c>
-      <c r="U77" s="14">
+      <c r="U77" s="13">
         <v>68</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V77" s="13">
         <v>32</v>
       </c>
-      <c r="W77" s="14">
-        <v>25</v>
-      </c>
-      <c r="X77" s="14">
+      <c r="W77" s="13">
+        <v>25</v>
+      </c>
+      <c r="X77" s="13">
         <v>20</v>
       </c>
-      <c r="Y77" s="14">
+      <c r="Y77" s="13">
         <v>100</v>
       </c>
-      <c r="Z77" s="14"/>
-    </row>
-    <row r="78" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="13"/>
+    </row>
+    <row r="78" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -7483,65 +7519,65 @@
       <c r="H78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="13">
         <v>47</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K78" s="13">
         <v>62</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="13">
         <v>18</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M78" s="13">
         <v>17</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N78" s="13">
         <v>28</v>
       </c>
-      <c r="O78" s="14">
-        <v>25</v>
-      </c>
-      <c r="P78" s="14">
+      <c r="O78" s="13">
+        <v>25</v>
+      </c>
+      <c r="P78" s="13">
         <v>28</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q78" s="13">
         <v>68</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R78" s="13">
         <v>39</v>
       </c>
-      <c r="S78" s="14">
+      <c r="S78" s="13">
         <v>79</v>
       </c>
-      <c r="T78" s="14">
+      <c r="T78" s="13">
         <v>104</v>
       </c>
-      <c r="U78" s="14">
+      <c r="U78" s="13">
         <v>72</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V78" s="13">
         <v>35</v>
       </c>
-      <c r="W78" s="14">
-        <v>25</v>
-      </c>
-      <c r="X78" s="14">
+      <c r="W78" s="13">
+        <v>25</v>
+      </c>
+      <c r="X78" s="13">
         <v>20</v>
       </c>
-      <c r="Y78" s="14">
+      <c r="Y78" s="13">
         <v>107</v>
       </c>
-      <c r="Z78" s="14"/>
-    </row>
-    <row r="79" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="13"/>
+    </row>
+    <row r="79" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -7559,65 +7595,65 @@
       <c r="H79" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I79" s="14" t="s">
+      <c r="I79" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="13">
         <v>45</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K79" s="13">
         <v>58</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="13">
         <v>18</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M79" s="13">
         <v>17</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N79" s="13">
         <v>26</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O79" s="13">
         <v>24</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P79" s="13">
         <v>26</v>
       </c>
-      <c r="Q79" s="14">
+      <c r="Q79" s="13">
         <v>68</v>
       </c>
-      <c r="R79" s="14">
+      <c r="R79" s="13">
         <v>38</v>
       </c>
-      <c r="S79" s="14">
+      <c r="S79" s="13">
         <v>70</v>
       </c>
-      <c r="T79" s="14">
+      <c r="T79" s="13">
         <v>96</v>
       </c>
-      <c r="U79" s="14">
+      <c r="U79" s="13">
         <v>69</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V79" s="13">
         <v>32</v>
       </c>
-      <c r="W79" s="14">
-        <v>25</v>
-      </c>
-      <c r="X79" s="14">
+      <c r="W79" s="13">
+        <v>25</v>
+      </c>
+      <c r="X79" s="13">
         <v>20</v>
       </c>
-      <c r="Y79" s="14">
+      <c r="Y79" s="13">
         <v>102</v>
       </c>
-      <c r="Z79" s="14"/>
-    </row>
-    <row r="80" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="13"/>
+    </row>
+    <row r="80" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B80" s="8"/>
-      <c r="C80" t="s">
+      <c r="C80" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -7635,65 +7671,65 @@
       <c r="H80" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="13">
         <v>45</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K80" s="13">
         <v>60</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="13">
         <v>18</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M80" s="13">
         <v>17</v>
       </c>
-      <c r="N80" s="14">
-        <v>27</v>
-      </c>
-      <c r="O80" s="14">
-        <v>25</v>
-      </c>
-      <c r="P80" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q80" s="14">
+      <c r="N80" s="13">
+        <v>27</v>
+      </c>
+      <c r="O80" s="13">
+        <v>25</v>
+      </c>
+      <c r="P80" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q80" s="13">
         <v>70</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R80" s="13">
         <v>39</v>
       </c>
-      <c r="S80" s="14">
+      <c r="S80" s="13">
         <v>73</v>
       </c>
-      <c r="T80" s="14">
+      <c r="T80" s="13">
         <v>99</v>
       </c>
-      <c r="U80" s="14">
+      <c r="U80" s="13">
         <v>66</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V80" s="13">
         <v>31</v>
       </c>
-      <c r="W80" s="14">
-        <v>25</v>
-      </c>
-      <c r="X80" s="14">
+      <c r="W80" s="13">
+        <v>25</v>
+      </c>
+      <c r="X80" s="13">
         <v>20</v>
       </c>
-      <c r="Y80" s="14">
+      <c r="Y80" s="13">
         <v>105</v>
       </c>
-      <c r="Z80" s="14"/>
-    </row>
-    <row r="81" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="13"/>
+    </row>
+    <row r="81" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" t="s">
+      <c r="C81" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -7711,65 +7747,65 @@
       <c r="H81" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="13">
         <v>47</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K81" s="13">
         <v>64</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="13">
         <v>18</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M81" s="13">
         <v>17</v>
       </c>
-      <c r="N81" s="14">
-        <v>27</v>
-      </c>
-      <c r="O81" s="14">
-        <v>25</v>
-      </c>
-      <c r="P81" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q81" s="14">
+      <c r="N81" s="13">
+        <v>27</v>
+      </c>
+      <c r="O81" s="13">
+        <v>25</v>
+      </c>
+      <c r="P81" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="13">
         <v>69</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R81" s="13">
         <v>38</v>
       </c>
-      <c r="S81" s="14">
+      <c r="S81" s="13">
         <v>77</v>
       </c>
-      <c r="T81" s="14">
+      <c r="T81" s="13">
         <v>98</v>
       </c>
-      <c r="U81" s="14">
+      <c r="U81" s="13">
         <v>69</v>
       </c>
-      <c r="V81" s="14">
+      <c r="V81" s="13">
         <v>33</v>
       </c>
-      <c r="W81" s="14">
-        <v>25</v>
-      </c>
-      <c r="X81" s="14">
+      <c r="W81" s="13">
+        <v>25</v>
+      </c>
+      <c r="X81" s="13">
         <v>20</v>
       </c>
-      <c r="Y81" s="14">
+      <c r="Y81" s="13">
         <v>102</v>
       </c>
-      <c r="Z81" s="14"/>
-    </row>
-    <row r="82" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z81" s="13"/>
+    </row>
+    <row r="82" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B82" s="8"/>
-      <c r="C82" t="s">
+      <c r="C82" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -7785,59 +7821,59 @@
       <c r="H82" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="13">
         <v>43</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K82" s="13">
         <v>60</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="13">
         <v>18</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M82" s="13">
         <v>17</v>
       </c>
-      <c r="N82" s="14">
-        <v>27</v>
-      </c>
-      <c r="O82" s="14">
-        <v>25</v>
-      </c>
-      <c r="P82" s="14">
+      <c r="N82" s="13">
+        <v>27</v>
+      </c>
+      <c r="O82" s="13">
+        <v>25</v>
+      </c>
+      <c r="P82" s="13">
         <v>28</v>
       </c>
-      <c r="Q82" s="14">
+      <c r="Q82" s="13">
         <v>70</v>
       </c>
-      <c r="R82" s="14">
+      <c r="R82" s="13">
         <v>40</v>
       </c>
-      <c r="S82" s="14">
+      <c r="S82" s="13">
         <v>81</v>
       </c>
-      <c r="T82" s="14">
+      <c r="T82" s="13">
         <v>102</v>
       </c>
-      <c r="U82" s="14">
+      <c r="U82" s="13">
         <v>68</v>
       </c>
-      <c r="V82" s="14">
+      <c r="V82" s="13">
         <v>33</v>
       </c>
-      <c r="W82" s="14">
+      <c r="W82" s="13">
         <v>26</v>
       </c>
-      <c r="X82" s="14">
+      <c r="X82" s="13">
         <v>22</v>
       </c>
-      <c r="Y82" s="14">
+      <c r="Y82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -7850,7 +7886,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -7863,7 +7899,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -7876,7 +7912,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -7889,7 +7925,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -7902,7 +7938,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -7915,7 +7951,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -7928,7 +7964,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -7941,7 +7977,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -7954,7 +7990,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -7967,7 +8003,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -7980,7 +8016,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -7993,7 +8029,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -8006,7 +8042,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -8019,7 +8055,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -8032,7 +8068,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -8045,7 +8081,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -8058,7 +8094,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -8071,7 +8107,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -8084,7 +8120,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -8097,7 +8133,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -8110,7 +8146,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -8123,7 +8159,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -8136,7 +8172,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -8149,7 +8185,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -8162,7 +8198,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -8175,7 +8211,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -8188,7 +8224,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -8201,7 +8237,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -8214,7 +8250,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -8227,7 +8263,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -8240,7 +8276,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -8253,7 +8289,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -8266,7 +8302,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -8279,7 +8315,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -8292,7 +8328,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -8305,7 +8341,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -8318,7 +8354,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8331,7 +8367,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8344,7 +8380,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -8357,7 +8393,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -8370,7 +8406,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
     </row>
-    <row r="124" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -8383,7 +8419,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
     </row>
-    <row r="125" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8396,7 +8432,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
     </row>
-    <row r="126" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -8409,7 +8445,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
     </row>
-    <row r="127" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -8422,7 +8458,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
     </row>
-    <row r="128" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8435,7 +8471,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
     </row>
-    <row r="129" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -8448,7 +8484,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
     </row>
-    <row r="130" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -8461,7 +8497,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
     </row>
-    <row r="131" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -8474,7 +8510,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
     </row>
-    <row r="132" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -8487,7 +8523,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
     </row>
-    <row r="133" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -8500,7 +8536,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
     </row>
-    <row r="134" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -8513,7 +8549,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
     </row>
-    <row r="135" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -8526,7 +8562,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="11"/>
     </row>
-    <row r="136" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -8539,7 +8575,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
     </row>
-    <row r="137" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -8552,7 +8588,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="11"/>
     </row>
-    <row r="138" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -8565,7 +8601,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="11"/>
     </row>
-    <row r="139" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -8578,7 +8614,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="11"/>
     </row>
-    <row r="140" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -8591,7 +8627,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="11"/>
     </row>
-    <row r="141" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -8604,7 +8640,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="11"/>
     </row>
-    <row r="142" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -8617,7 +8653,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
     </row>
-    <row r="143" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -8630,7 +8666,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="11"/>
     </row>
-    <row r="144" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -8643,7 +8679,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
     </row>
-    <row r="145" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -8656,7 +8692,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
     </row>
-    <row r="146" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -8669,7 +8705,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
     </row>
-    <row r="147" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -8682,7 +8718,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
     </row>
-    <row r="148" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -8695,7 +8731,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
     </row>
-    <row r="149" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -8708,7 +8744,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
     </row>
-    <row r="150" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -8721,7 +8757,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
     </row>
-    <row r="151" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -8734,7 +8770,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
     </row>
-    <row r="152" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -8747,7 +8783,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
     </row>
-    <row r="153" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -8760,7 +8796,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
     </row>
-    <row r="154" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -8772,7 +8808,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
     </row>
-    <row r="155" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -8784,7 +8820,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
     </row>
-    <row r="156" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -8796,7 +8832,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
     </row>
-    <row r="157" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -8808,7 +8844,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
     </row>
-    <row r="158" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -8820,7 +8856,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
     </row>
-    <row r="159" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -8832,7 +8868,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
     </row>
-    <row r="160" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -8844,7 +8880,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
     </row>
-    <row r="161" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -8856,7 +8892,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
     </row>
-    <row r="162" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -8868,7 +8904,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
     </row>
-    <row r="163" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -8880,7 +8916,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
     </row>
-    <row r="164" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -8892,7 +8928,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
     </row>
-    <row r="165" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -8904,7 +8940,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
     </row>
-    <row r="166" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -8916,7 +8952,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
     </row>
-    <row r="167" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -8928,7 +8964,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
     </row>
-    <row r="168" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -8940,7 +8976,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
     </row>
-    <row r="169" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -8952,7 +8988,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
     </row>
-    <row r="170" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -8964,7 +9000,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
     </row>
-    <row r="171" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -8976,7 +9012,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -8988,7 +9024,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
     </row>
-    <row r="173" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -9000,7 +9036,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
     </row>
-    <row r="174" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -9012,7 +9048,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
     </row>
-    <row r="175" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -9024,7 +9060,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
     </row>
-    <row r="176" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -9036,7 +9072,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
     </row>
-    <row r="177" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -9048,7 +9084,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
     </row>
-    <row r="178" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -9060,7 +9096,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
     </row>
-    <row r="179" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -9072,7 +9108,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
     </row>
-    <row r="180" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -9084,7 +9120,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
     </row>
-    <row r="181" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -9096,7 +9132,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
     </row>
-    <row r="182" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -9108,7 +9144,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
     </row>
-    <row r="183" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -9120,7 +9156,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
     </row>
-    <row r="184" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -9132,7 +9168,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
     </row>
-    <row r="185" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -9144,7 +9180,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
     </row>
-    <row r="186" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -9156,7 +9192,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
     </row>
-    <row r="187" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -9168,7 +9204,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
     </row>
-    <row r="188" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -9182,8 +9218,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.43350000000000005" right="0.23620000000000002" top="0.77" bottom="0.56000000000000005" header="0.59020000000000006" footer="0.43350000000000005"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.78740157480314965" bottom="0.35433070866141736" header="0.59055118110236227" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
